--- a/13/2/2/2/FEES por tipo de exposición crediticia 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FEES por tipo de exposición crediticia 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3696,6 +3699,23 @@
         <v>368</v>
       </c>
     </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174">
+        <v>3991</v>
+      </c>
+      <c r="C174">
+        <v>2944</v>
+      </c>
+      <c r="D174">
+        <v>794</v>
+      </c>
+      <c r="F174">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FEES por tipo de exposición crediticia 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FEES por tipo de exposición crediticia 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Serie</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3716,6 +3719,23 @@
         <v>253</v>
       </c>
     </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175">
+        <v>2976</v>
+      </c>
+      <c r="C175">
+        <v>2364</v>
+      </c>
+      <c r="D175">
+        <v>459</v>
+      </c>
+      <c r="F175">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FEES por tipo de exposición crediticia 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FEES por tipo de exposición crediticia 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3736,6 +3739,23 @@
         <v>153</v>
       </c>
     </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176">
+        <v>2482</v>
+      </c>
+      <c r="C176">
+        <v>2333</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
